--- a/Data/Dynamic Trade Interface - 3020706506/Dynamic Trade Interface - 3020706506.xlsx
+++ b/Data/Dynamic Trade Interface - 3020706506/Dynamic Trade Interface - 3020706506.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Dynamic Trade Interface - 3020706506\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D128D0-0816-4D02-88B4-3304348AB6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9961215D-1A03-49AD-B6A3-40DAC9C1E48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-05-14에 새로 추가된 노드들 (2개)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -79,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="283">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -568,9 +581,6 @@
     <t>ConfigurationWindowAutoRefocus</t>
   </si>
   <si>
-    <t>자동 재포커스</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -584,6 +594,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>자동 재포커스</t>
+  </si>
+  <si>
     <t>Keyed+ConfigurationWindowAutoRefocusTooltip</t>
   </si>
   <si>
@@ -687,9 +700,6 @@
   </si>
   <si>
     <t>Gift {0} less.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowGiftNone</t>
   </si>
   <si>
     <r>
@@ -705,10 +715,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowGiftNone</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowGiftNone</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowGiftMore</t>
   </si>
   <si>
     <r>
@@ -737,13 +747,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowGiftMore</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowGiftMore</t>
   </si>
   <si>
     <t>Gift {0} more.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowGiftAll</t>
   </si>
   <si>
     <r>
@@ -759,13 +769,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowGiftAll</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowGiftAll</t>
   </si>
   <si>
     <t>Gift all.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowBuyMore</t>
   </si>
   <si>
     <r>
@@ -781,13 +791,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowBuyMore</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowBuyMore</t>
   </si>
   <si>
     <t>Buy {0} more.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowBuyAll</t>
   </si>
   <si>
     <r>
@@ -803,13 +813,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowBuyAll</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowBuyAll</t>
   </si>
   <si>
     <t>Buy all.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowBuyAffordable</t>
   </si>
   <si>
     <r>
@@ -825,13 +835,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowBuyAffordable</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowBuyAffordable</t>
   </si>
   <si>
     <t>Buy affordable.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowSellMore</t>
   </si>
   <si>
     <r>
@@ -847,13 +857,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowSellMore</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowSellMore</t>
   </si>
   <si>
     <t>Sell {0} more.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowSellAll</t>
   </si>
   <si>
     <r>
@@ -869,13 +879,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowSellAll</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowSellAll</t>
   </si>
   <si>
     <t>Sell all.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowSellAffordable</t>
   </si>
   <si>
     <r>
@@ -891,13 +901,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowSellAffordable</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowSellAffordable</t>
   </si>
   <si>
     <t>Sell affordable.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowUnaffordable</t>
   </si>
   <si>
     <r>
@@ -913,13 +923,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowUnaffordable</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowUnaffordable</t>
   </si>
   <si>
     <t>Unaffordable.</t>
-  </si>
-  <si>
-    <t>Keyed+DynamicTradeWindowGenepackMissing</t>
   </si>
   <si>
     <r>
@@ -935,6 +945,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+DynamicTradeWindowGenepackMissing</t>
+  </si>
+  <si>
     <t>DynamicTradeWindowGenepackMissing</t>
   </si>
   <si>
@@ -975,9 +988,6 @@
   </si>
   <si>
     <t>Trained</t>
-  </si>
-  <si>
-    <t>colTradeInfoDef.tooltip</t>
   </si>
   <si>
     <r>
@@ -993,10 +1003,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>colTradeInfoDef.tooltip</t>
+  </si>
+  <si>
     <t>info button</t>
-  </si>
-  <si>
-    <t>colPricePerWeightDef.tooltip</t>
   </si>
   <si>
     <r>
@@ -1012,6 +1022,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>colPricePerWeightDef.tooltip</t>
+  </si>
+  <si>
     <t>price / kg</t>
   </si>
   <si>
@@ -1028,6 +1041,49 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DynamicTradeInterface.Defs.TradeColumnDef+colDurabilityDef.tooltip</t>
+  </si>
+  <si>
+    <t>colDurabilityDef.tooltip</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>ConfigurationWindowOpenAsDefault</t>
+  </si>
+  <si>
+    <t>Keyed+ConfigurationWindowOpenAsDefault</t>
+  </si>
+  <si>
+    <t>Default trade window</t>
+  </si>
+  <si>
+    <t>Keyed+ConfigurationWindowOpenAsDefaultTooltip</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기본 거래 창</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationWindowOpenAsDefaultTooltip</t>
+  </si>
+  <si>
+    <t>Use as default trade window. The non-default window can be opened by holding down Ctrl as the window opens.</t>
+  </si>
+  <si>
+    <t>기본 거래 창을 사용합니다. 기본 창이 아닌 창은 Ctrl 키를 누른 상태로 열 수 있습니다.</t>
+  </si>
+  <si>
     <t>DynamicTradeInterface.Defs.TradeColumnDef+colTradeInfoDef.label</t>
   </si>
   <si>
@@ -1043,42 +1099,28 @@
     <t>가격/kg</t>
   </si>
   <si>
-    <t>DynamicTradeInterface.Defs.TradeColumnDef+colDurabilityDef.tooltip</t>
-  </si>
-  <si>
-    <t>colDurabilityDef.tooltip</t>
-  </si>
-  <si>
-    <t>Durability</t>
-  </si>
-  <si>
-    <t>Keyed+ConfigurationWindowOpenAsDefault</t>
-  </si>
-  <si>
-    <t>ConfigurationWindowOpenAsDefault</t>
-  </si>
-  <si>
-    <t>Default trade window</t>
-  </si>
-  <si>
-    <t>Keyed+ConfigurationWindowOpenAsDefaultTooltip</t>
-  </si>
-  <si>
-    <t>ConfigurationWindowOpenAsDefaultTooltip</t>
-  </si>
-  <si>
-    <t>Use as default trade window. The non-default window can be opened by holding down Ctrl as the window opens.</t>
-  </si>
-  <si>
-    <t>내구도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 거래 창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 거래 창을 사용합니다. 기본 창이 아닌 창은 Ctrl 키를 누른 상태로 열 수 있습니다.</t>
+    <t>Keyed+ConfigurationWindowPauseAfterTrade</t>
+  </si>
+  <si>
+    <t>ConfigurationWindowPauseAfterTrade</t>
+  </si>
+  <si>
+    <t>Pause after trade</t>
+  </si>
+  <si>
+    <t>Keyed+ConfigurationWindowPauseAfterTradeTooltip</t>
+  </si>
+  <si>
+    <t>ConfigurationWindowPauseAfterTradeTooltip</t>
+  </si>
+  <si>
+    <t>Keeps the game paused after trade window is closed.</t>
+  </si>
+  <si>
+    <t>거래 창이 닫힌 후에도 게임을 일시 정지 상태로 유지합니다.</t>
+  </si>
+  <si>
+    <t>거래 후 일시정지</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2300,10 +2342,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="G39" t="e">
         <f>VLOOKUP(A39,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2492,7 +2534,7 @@
         <v>195</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G48" t="e">
         <f>VLOOKUP(A48,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2501,7 +2543,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>101</v>
@@ -2510,10 +2552,10 @@
         <v>198</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="G49" t="e">
         <f>VLOOKUP(A49,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2522,7 +2564,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>101</v>
@@ -2534,7 +2576,7 @@
         <v>203</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G50" t="e">
         <f>VLOOKUP(A50,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2543,7 +2585,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>101</v>
@@ -2555,7 +2597,7 @@
         <v>207</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G51" t="e">
         <f>VLOOKUP(A51,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2564,7 +2606,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>101</v>
@@ -2576,7 +2618,7 @@
         <v>211</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G52" t="e">
         <f>VLOOKUP(A52,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2585,7 +2627,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>101</v>
@@ -2597,7 +2639,7 @@
         <v>215</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G53" t="e">
         <f>VLOOKUP(A53,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2606,7 +2648,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>101</v>
@@ -2618,7 +2660,7 @@
         <v>219</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G54" t="e">
         <f>VLOOKUP(A54,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2627,7 +2669,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>101</v>
@@ -2639,7 +2681,7 @@
         <v>223</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G55" t="e">
         <f>VLOOKUP(A55,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2648,7 +2690,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>101</v>
@@ -2660,7 +2702,7 @@
         <v>227</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G56" t="e">
         <f>VLOOKUP(A56,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2669,7 +2711,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>101</v>
@@ -2681,7 +2723,7 @@
         <v>231</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G57" t="e">
         <f>VLOOKUP(A57,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2690,7 +2732,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>101</v>
@@ -2702,7 +2744,7 @@
         <v>235</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G58" t="e">
         <f>VLOOKUP(A58,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2711,7 +2753,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>101</v>
@@ -2786,7 +2828,7 @@
         <v>251</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G62" t="e">
         <f>VLOOKUP(A62,Sheet1!$A$1:$B$5832,2,FALSE)</f>
@@ -2798,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
         <v>254</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2812,7 +2854,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
         <v>257</v>
@@ -2823,53 +2865,87 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>273</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
         <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D67" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
         <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>275</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3159,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>240</v>
@@ -3143,10 +3219,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C22" t="str" cm="1">
         <f t="array" ref="C22">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A22,Sheet!$A$2:$A$8004,1,FALSE))</f>
@@ -3167,10 +3243,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C24" t="str" cm="1">
         <f t="array" ref="C24">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A24,Sheet!$A$2:$A$8004,1,FALSE))</f>
@@ -3395,10 +3471,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C43" t="str" cm="1">
         <f t="array" ref="C43">_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A43,Sheet!$A$2:$A$8004,1,FALSE))</f>
